--- a/python_tools/test/test_data/test_manifests/test_manifest_multilane.xlsx
+++ b/python_tools/test/test_data/test_manifests/test_manifest_multilane.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="SampleInfo" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="77">
   <si>
     <t>CMO_SAMPLE_ID</t>
   </si>
@@ -250,6 +250,15 @@
   </si>
   <si>
     <t>test_sample_1_N</t>
+  </si>
+  <si>
+    <t>PROJECT_ID</t>
+  </si>
+  <si>
+    <t>Test_Project_1</t>
+  </si>
+  <si>
+    <t>Test_Project_2</t>
   </si>
 </sst>
 </file>
@@ -596,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y7"/>
+  <dimension ref="A1:Z7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
+      <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -607,9 +616,10 @@
     <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -685,8 +695,11 @@
       <c r="Y1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -762,8 +775,11 @@
       <c r="Y2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>67</v>
       </c>
@@ -839,8 +855,11 @@
       <c r="Y3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -916,8 +935,11 @@
       <c r="Y4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -993,8 +1015,11 @@
       <c r="Y5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -1070,8 +1095,11 @@
       <c r="Y6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -1146,6 +1174,9 @@
       </c>
       <c r="Y7">
         <v>2</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/python_tools/test/test_data/test_manifests/test_manifest_multilane.xlsx
+++ b/python_tools/test/test_data/test_manifests/test_manifest_multilane.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20440" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="SampleInfo" sheetId="1" r:id="rId1"/>
@@ -252,13 +252,13 @@
     <t>test_sample_1_N</t>
   </si>
   <si>
-    <t>PROJECT_ID</t>
-  </si>
-  <si>
     <t>Test_Project_1</t>
   </si>
   <si>
     <t>Test_Project_2</t>
+  </si>
+  <si>
+    <t>STUDY_ID</t>
   </si>
 </sst>
 </file>
@@ -608,7 +608,7 @@
   <dimension ref="A1:Z7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Z8" sqref="Z8"/>
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -696,7 +696,7 @@
         <v>24</v>
       </c>
       <c r="Z1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
@@ -776,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="Z2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
@@ -856,7 +856,7 @@
         <v>1</v>
       </c>
       <c r="Z3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
@@ -936,7 +936,7 @@
         <v>1</v>
       </c>
       <c r="Z4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
@@ -1016,7 +1016,7 @@
         <v>2</v>
       </c>
       <c r="Z5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
@@ -1096,7 +1096,7 @@
         <v>2</v>
       </c>
       <c r="Z6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
@@ -1176,7 +1176,7 @@
         <v>2</v>
       </c>
       <c r="Z7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/python_tools/test/test_data/test_manifests/test_manifest_multilane.xlsx
+++ b/python_tools/test/test_data/test_manifests/test_manifest_multilane.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="SampleInfo" sheetId="1" r:id="rId1"/>
@@ -252,13 +252,13 @@
     <t>test_sample_1_N</t>
   </si>
   <si>
+    <t>PROJECT_ID</t>
+  </si>
+  <si>
     <t>Test_Project_1</t>
   </si>
   <si>
     <t>Test_Project_2</t>
-  </si>
-  <si>
-    <t>STUDY_ID</t>
   </si>
 </sst>
 </file>
@@ -608,7 +608,7 @@
   <dimension ref="A1:Z7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+      <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -696,7 +696,7 @@
         <v>24</v>
       </c>
       <c r="Z1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
@@ -776,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="Z2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
@@ -856,7 +856,7 @@
         <v>1</v>
       </c>
       <c r="Z3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
@@ -936,7 +936,7 @@
         <v>1</v>
       </c>
       <c r="Z4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
@@ -1016,7 +1016,7 @@
         <v>2</v>
       </c>
       <c r="Z5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
@@ -1096,7 +1096,7 @@
         <v>2</v>
       </c>
       <c r="Z6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
@@ -1176,7 +1176,7 @@
         <v>2</v>
       </c>
       <c r="Z7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
